--- a/airflow/data_analysis/classify_elastic/structured_data/excels_infraestructuras_turísticas/Infraestructuras turísticas.xlsx
+++ b/airflow/data_analysis/classify_elastic/structured_data/excels_infraestructuras_turísticas/Infraestructuras turísticas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoteles" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="570">
   <si>
     <t xml:space="preserve">  Puerto de la Cruz</t>
   </si>
@@ -349,6 +349,27 @@
     <t xml:space="preserve">2018 Febrero</t>
   </si>
   <si>
+    <t xml:space="preserve">2018 Marzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Junio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Agosto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Septiembre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Establecimientos hoteleros abiertos</t>
   </si>
   <si>
@@ -592,6 +613,15 @@
     <t xml:space="preserve">16.370</t>
   </si>
   <si>
+    <t xml:space="preserve">16.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.023</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.469</t>
   </si>
   <si>
@@ -712,6 +742,15 @@
     <t xml:space="preserve">3.542</t>
   </si>
   <si>
+    <t xml:space="preserve">3.303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.520</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.218</t>
   </si>
   <si>
@@ -988,6 +1027,15 @@
     <t xml:space="preserve">8.282</t>
   </si>
   <si>
+    <t xml:space="preserve">8.466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.574</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.221</t>
   </si>
   <si>
@@ -1124,6 +1172,15 @@
   </si>
   <si>
     <t xml:space="preserve">1.768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.754</t>
   </si>
   <si>
     <t xml:space="preserve">6.778</t>
@@ -1726,7 +1783,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1751,19 +1808,19 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="8"/>
       <name val="arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1772,7 +1829,6 @@
       <sz val="8"/>
       <name val="arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1801,6 +1857,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1957,7 +2019,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1983,48 +2045,48 @@
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2048,27 +2110,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2092,7 +2154,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2117,15 +2179,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
@@ -2196,10 +2257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:DC51"/>
+  <dimension ref="A2:DL51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2211,440 +2272,465 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2"/>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2"/>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="2"/>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2"/>
-      <c r="DB2" s="2"/>
-      <c r="DC2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BA3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BE3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BF3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BG3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BH3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BI3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BL3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BM3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BN3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BO3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BP3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BR3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BS3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BT3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BU3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BV3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BW3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BX3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="BY3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CA3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CB3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CC3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CD3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CE3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CF3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CG3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH3" s="2" t="s">
+      <c r="CH3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CI3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ3" s="2" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CK3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CL3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CM3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CN3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CO3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP3" s="2" t="s">
+      <c r="CP3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ3" s="2" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CR3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS3" s="2" t="s">
+      <c r="CS3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT3" s="2" t="s">
+      <c r="CT3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU3" s="2" t="s">
+      <c r="CU3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV3" s="2" t="s">
+      <c r="CV3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW3" s="2" t="s">
+      <c r="CW3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX3" s="2" t="s">
+      <c r="CX3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY3" s="2" t="s">
+      <c r="CY3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ3" s="2" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA3" s="2" t="s">
+      <c r="DA3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB3" s="2" t="s">
+      <c r="DB3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DC3" s="2" t="s">
+      <c r="DC3" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="DD3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2752,979 +2838,1069 @@
       <c r="DA4" s="4"/>
       <c r="DB4" s="4"/>
       <c r="DC4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>108</v>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BF5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BG5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="BH5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BL5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BN5" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="BP5" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="BQ5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BR5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BS5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BT5" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="BU5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="BV5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BW5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="BX5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BY5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BZ5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CA5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CB5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CC5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="CD5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CE5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CF5" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="CG5" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="CH5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CI5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CJ5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CK5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CL5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CM5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CN5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CO5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CP5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="CQ5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="CR5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CS5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CT5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CU5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CV5" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CW5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CX5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CY5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CZ5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="DA5" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="DB5" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="DC5" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="DD5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DE5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DF5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DG5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DH5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DI5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DJ5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DK5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DL5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BW6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CC6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CD6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CF6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CG6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CJ6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CK6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CL6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CM6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CP6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CQ6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CR6" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CS6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CT6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CU6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CV6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CW6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CX6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CY6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="CZ6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="DA6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="DB6" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="DC6" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="DD6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DF6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DJ6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DK6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CC7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CD7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CE7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="CG7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CJ7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="CK7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="CL7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="CM7" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="CN7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CO7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CP7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CR7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CS7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CT7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CU7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="CW7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CX7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CY7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CZ7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="DA7" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="DB7" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="DC7" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="DD7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DE7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DF7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DI7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DJ7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DK7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DL7" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3832,979 +4008,1069 @@
       <c r="DA8" s="4"/>
       <c r="DB8" s="4"/>
       <c r="DC8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>108</v>
+      <c r="DD8" s="5"/>
+      <c r="DE8" s="5"/>
+      <c r="DF8" s="5"/>
+      <c r="DG8" s="5"/>
+      <c r="DH8" s="5"/>
+      <c r="DI8" s="5"/>
+      <c r="DJ8" s="5"/>
+      <c r="DK8" s="5"/>
+      <c r="DL8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BV9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BZ9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CB9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="CG9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="CH9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CO9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CP9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="CQ9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CT9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CU9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CW9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CX9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="CY9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="DA9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="DB9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="DC9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="DD9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="DE9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="DF9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="DG9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DH9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DI9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DJ9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DK9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DL9" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="BS10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="BU10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BV10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BY10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BZ10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CB10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CC10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CE10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CF10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CG10" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CH10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CJ10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CM10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CN10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="CO10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CP10" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CQ10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CS10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="CT10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CU10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CV10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CW10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CX10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="CZ10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DA10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="DB10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DD10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="DF10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="DG10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="DH10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="DI10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="DJ10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="DK10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="DL10" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN9" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BT9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BV9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BW9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BY9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CF9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="CH9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CI9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CJ9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CK9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CL9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CM9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CO9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CP9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="CQ9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CR9" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="CS9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="CT9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CU9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CV9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CW9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CX9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CY9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="CZ9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DA9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="DB9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DC9" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK10" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BM10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="BO10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BP10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BQ10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BR10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BS10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BT10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BU10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BV10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BW10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BX10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="BY10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="BZ10" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="CA10" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="CB10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CC10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CD10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CE10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CF10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CG10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CH10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CI10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CN10" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="CO10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CP10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CQ10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="CR10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="CS10" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="CT10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CV10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CW10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CX10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CY10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="CZ10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="DA10" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="DB10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="DC10" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BA11" s="4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BE11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BF11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BG11" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="BH11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BI11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BK11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BL11" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="BM11" s="4" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BN11" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BP11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BQ11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BR11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BS11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BT11" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="BU11" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="BV11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BW11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BX11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BY11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="BZ11" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="CA11" s="4" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="CB11" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="CC11" s="4" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="CD11" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="CE11" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="CF11" s="4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="CG11" s="4" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="CH11" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="CI11" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="CJ11" s="4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="CK11" s="4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="CL11" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="CM11" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="CN11" s="4" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="CO11" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="CP11" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="CQ11" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="CR11" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="CS11" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="CT11" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="CU11" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="CV11" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="CW11" s="4" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="CX11" s="4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="CY11" s="4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="CZ11" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="DA11" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="DB11" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="DC11" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+      <c r="DD11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DE11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DF11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DG11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DH11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DI11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DJ11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DK11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="DL11" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4912,2126 +5178,2107 @@
       <c r="DA12" s="4"/>
       <c r="DB12" s="4"/>
       <c r="DC12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>108</v>
+      <c r="DD12" s="5"/>
+      <c r="DE12" s="5"/>
+      <c r="DF12" s="5"/>
+      <c r="DG12" s="5"/>
+      <c r="DH12" s="5"/>
+      <c r="DI12" s="5"/>
+      <c r="DJ12" s="5"/>
+      <c r="DK12" s="5"/>
+      <c r="DL12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BA13" s="4" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="BF13" s="4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="BG13" s="4" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="BH13" s="4" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="BI13" s="4" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="BL13" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="BM13" s="4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="BN13" s="4" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="BP13" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="BQ13" s="4" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="BR13" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="BS13" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="BT13" s="4" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="BU13" s="4" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="BV13" s="4" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="BW13" s="4" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="BX13" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="BY13" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="BZ13" s="4" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="CA13" s="4" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="CB13" s="4" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="CC13" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="CD13" s="4" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="CE13" s="4" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="CF13" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="CG13" s="4" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="CH13" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="CI13" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="CJ13" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="CK13" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="CL13" s="4" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="CM13" s="4" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="CN13" s="4" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="CO13" s="4" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="CP13" s="4" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="CQ13" s="4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="CR13" s="4" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="CS13" s="4" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="CT13" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="CU13" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="CV13" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="CW13" s="4" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="CX13" s="4" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="CY13" s="4" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="CZ13" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="DA13" s="4" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="DB13" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="DC13" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>331</v>
+      </c>
+      <c r="DD13" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="DE13" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="DF13" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="DG13" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="DH13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="DI13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="DJ13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="DK13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="DL13" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="BD14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="BE14" s="4" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="BF14" s="4" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="BG14" s="4" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="BH14" s="4" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="BI14" s="4" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="BK14" s="4" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="BL14" s="4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="BM14" s="4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="BN14" s="4" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="BP14" s="4" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="BQ14" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BR14" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BS14" s="4" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="BT14" s="4" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="BU14" s="4" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="BV14" s="4" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="BW14" s="4" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="BX14" s="4" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="BY14" s="4" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="BZ14" s="4" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="CA14" s="4" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="CB14" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="CC14" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="CD14" s="4" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="CE14" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="CF14" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="CG14" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="CH14" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="CI14" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="CJ14" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="CK14" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="CL14" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="CM14" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="CN14" s="4" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="CO14" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="CP14" s="4" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="CQ14" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="CR14" s="4" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="CS14" s="4" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="CT14" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="CU14" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="CV14" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="CW14" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="CX14" s="4" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="CY14" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="CZ14" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="DA14" s="4" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="DB14" s="4" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="DC14" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>122</v>
+        <v>380</v>
+      </c>
+      <c r="DD14" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DE14" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DF14" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DG14" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DH14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="DI14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="DJ14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="DK14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="DL14" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BD15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BE15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BF15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BG15" s="4" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="BH15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BI15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BK15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BL15" s="4" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="BM15" s="4" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="BN15" s="4" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="BO15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BP15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BQ15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BR15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BS15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BT15" s="4" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="BU15" s="4" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="BV15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BW15" s="4" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="BX15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="BY15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="BZ15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="CA15" s="4" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="CB15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="CC15" s="4" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="CD15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="CE15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="CF15" s="4" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="CG15" s="4" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="CH15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="CI15" s="4" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="CJ15" s="4" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="CK15" s="4" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="CL15" s="4" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="CM15" s="4" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="CN15" s="4" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="CO15" s="4" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="CP15" s="4" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="CQ15" s="4" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="CR15" s="4" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="CS15" s="4" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="CT15" s="4" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="CU15" s="4" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="CV15" s="4" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="CW15" s="4" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="CX15" s="4" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="CY15" s="4" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="CZ15" s="4" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="DA15" s="4" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="DB15" s="4" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="DC15" s="4" t="s">
-        <v>392</v>
+        <v>411</v>
+      </c>
+      <c r="DD15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DE15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DF15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DG15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DH15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DI15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DJ15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DK15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="DL15" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="6"/>
-      <c r="BN17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="BP17" s="6"/>
-      <c r="BQ17" s="6"/>
-      <c r="BR17" s="6"/>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="6"/>
-      <c r="BU17" s="6"/>
-      <c r="BV17" s="6"/>
-      <c r="BW17" s="6"/>
-      <c r="BX17" s="6"/>
-      <c r="BY17" s="6"/>
-      <c r="BZ17" s="6"/>
-      <c r="CA17" s="6"/>
-      <c r="CB17" s="6"/>
-      <c r="CC17" s="6"/>
-      <c r="CD17" s="6"/>
-      <c r="CE17" s="6"/>
-      <c r="CF17" s="6"/>
-      <c r="CG17" s="6"/>
-      <c r="CH17" s="6"/>
-      <c r="CI17" s="6"/>
-      <c r="CJ17" s="6"/>
-      <c r="CK17" s="6"/>
-      <c r="CL17" s="6"/>
-      <c r="CM17" s="6"/>
-      <c r="CN17" s="6"/>
-      <c r="CO17" s="6"/>
-      <c r="CP17" s="6"/>
-      <c r="CQ17" s="6"/>
-      <c r="CR17" s="6"/>
-      <c r="CS17" s="6"/>
-      <c r="CT17" s="6"/>
-      <c r="CU17" s="6"/>
-      <c r="CV17" s="6"/>
-      <c r="CW17" s="6"/>
-      <c r="CX17" s="6"/>
-      <c r="CY17" s="6"/>
-      <c r="CZ17" s="6"/>
-      <c r="DA17" s="6"/>
-      <c r="DB17" s="6"/>
-      <c r="DC17" s="6"/>
+      <c r="A17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="7"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7"/>
+      <c r="CD17" s="7"/>
+      <c r="CE17" s="7"/>
+      <c r="CF17" s="7"/>
+      <c r="CG17" s="7"/>
+      <c r="CH17" s="7"/>
+      <c r="CI17" s="7"/>
+      <c r="CJ17" s="7"/>
+      <c r="CK17" s="7"/>
+      <c r="CL17" s="7"/>
+      <c r="CM17" s="7"/>
+      <c r="CN17" s="7"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="7"/>
+      <c r="CQ17" s="7"/>
+      <c r="CR17" s="7"/>
+      <c r="CS17" s="7"/>
+      <c r="CT17" s="7"/>
+      <c r="CU17" s="7"/>
+      <c r="CV17" s="7"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="7"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="7"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="7"/>
+      <c r="DC17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BP18" s="6"/>
-      <c r="BQ18" s="6"/>
-      <c r="BR18" s="6"/>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="6"/>
-      <c r="BU18" s="6"/>
-      <c r="BV18" s="6"/>
-      <c r="BW18" s="6"/>
-      <c r="BX18" s="6"/>
-      <c r="BY18" s="6"/>
-      <c r="BZ18" s="6"/>
-      <c r="CA18" s="6"/>
-      <c r="CB18" s="6"/>
-      <c r="CC18" s="6"/>
-      <c r="CD18" s="6"/>
-      <c r="CE18" s="6"/>
-      <c r="CF18" s="6"/>
-      <c r="CG18" s="6"/>
-      <c r="CH18" s="6"/>
-      <c r="CI18" s="6"/>
-      <c r="CJ18" s="6"/>
-      <c r="CK18" s="6"/>
-      <c r="CL18" s="6"/>
-      <c r="CM18" s="6"/>
-      <c r="CN18" s="6"/>
-      <c r="CO18" s="6"/>
-      <c r="CP18" s="6"/>
-      <c r="CQ18" s="6"/>
-      <c r="CR18" s="6"/>
-      <c r="CS18" s="6"/>
-      <c r="CT18" s="6"/>
-      <c r="CU18" s="6"/>
-      <c r="CV18" s="6"/>
-      <c r="CW18" s="6"/>
-      <c r="CX18" s="6"/>
-      <c r="CY18" s="6"/>
-      <c r="CZ18" s="6"/>
-      <c r="DA18" s="6"/>
-      <c r="DB18" s="6"/>
-      <c r="DC18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-      <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
-      <c r="CW19" s="1"/>
-      <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
-      <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
-      <c r="DC19" s="1"/>
+      <c r="A18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="7"/>
+      <c r="DB18" s="7"/>
+      <c r="DC18" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
-      <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="6"/>
-      <c r="CA20" s="6"/>
-      <c r="CB20" s="6"/>
-      <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
-      <c r="CF20" s="6"/>
-      <c r="CG20" s="6"/>
-      <c r="CH20" s="6"/>
-      <c r="CI20" s="6"/>
-      <c r="CJ20" s="6"/>
-      <c r="CK20" s="6"/>
-      <c r="CL20" s="6"/>
-      <c r="CM20" s="6"/>
-      <c r="CN20" s="6"/>
-      <c r="CO20" s="6"/>
-      <c r="CP20" s="6"/>
-      <c r="CQ20" s="6"/>
-      <c r="CR20" s="6"/>
-      <c r="CS20" s="6"/>
-      <c r="CT20" s="6"/>
-      <c r="CU20" s="6"/>
-      <c r="CV20" s="6"/>
-      <c r="CW20" s="6"/>
-      <c r="CX20" s="6"/>
-      <c r="CY20" s="6"/>
-      <c r="CZ20" s="6"/>
-      <c r="DA20" s="6"/>
-      <c r="DB20" s="6"/>
-      <c r="DC20" s="6"/>
+      <c r="A20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
+      <c r="BU20" s="7"/>
+      <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
+      <c r="BX20" s="7"/>
+      <c r="BY20" s="7"/>
+      <c r="BZ20" s="7"/>
+      <c r="CA20" s="7"/>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7"/>
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="7"/>
+      <c r="CG20" s="7"/>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="7"/>
+      <c r="CJ20" s="7"/>
+      <c r="CK20" s="7"/>
+      <c r="CL20" s="7"/>
+      <c r="CM20" s="7"/>
+      <c r="CN20" s="7"/>
+      <c r="CO20" s="7"/>
+      <c r="CP20" s="7"/>
+      <c r="CQ20" s="7"/>
+      <c r="CR20" s="7"/>
+      <c r="CS20" s="7"/>
+      <c r="CT20" s="7"/>
+      <c r="CU20" s="7"/>
+      <c r="CV20" s="7"/>
+      <c r="CW20" s="7"/>
+      <c r="CX20" s="7"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="7"/>
+      <c r="DA20" s="7"/>
+      <c r="DB20" s="7"/>
+      <c r="DC20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
-      <c r="AX21" s="7"/>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
-      <c r="BN21" s="7"/>
-      <c r="BO21" s="7"/>
-      <c r="BP21" s="7"/>
-      <c r="BQ21" s="7"/>
-      <c r="BR21" s="7"/>
-      <c r="BS21" s="7"/>
-      <c r="BT21" s="7"/>
-      <c r="BU21" s="7"/>
-      <c r="BV21" s="7"/>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
-      <c r="BY21" s="7"/>
-      <c r="BZ21" s="7"/>
-      <c r="CA21" s="7"/>
-      <c r="CB21" s="7"/>
-      <c r="CC21" s="7"/>
-      <c r="CD21" s="7"/>
-      <c r="CE21" s="7"/>
-      <c r="CF21" s="7"/>
-      <c r="CG21" s="7"/>
-      <c r="CH21" s="7"/>
-      <c r="CI21" s="7"/>
-      <c r="CJ21" s="7"/>
-      <c r="CK21" s="7"/>
-      <c r="CL21" s="7"/>
-      <c r="CM21" s="7"/>
-      <c r="CN21" s="7"/>
-      <c r="CO21" s="7"/>
-      <c r="CP21" s="7"/>
-      <c r="CQ21" s="7"/>
-      <c r="CR21" s="7"/>
-      <c r="CS21" s="7"/>
-      <c r="CT21" s="7"/>
-      <c r="CU21" s="7"/>
-      <c r="CV21" s="7"/>
-      <c r="CW21" s="7"/>
-      <c r="CX21" s="7"/>
-      <c r="CY21" s="7"/>
-      <c r="CZ21" s="7"/>
-      <c r="DA21" s="7"/>
-      <c r="DB21" s="7"/>
-      <c r="DC21" s="7"/>
+      <c r="A21" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8"/>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
+      <c r="BN21" s="8"/>
+      <c r="BO21" s="8"/>
+      <c r="BP21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BS21" s="8"/>
+      <c r="BT21" s="8"/>
+      <c r="BU21" s="8"/>
+      <c r="BV21" s="8"/>
+      <c r="BW21" s="8"/>
+      <c r="BX21" s="8"/>
+      <c r="BY21" s="8"/>
+      <c r="BZ21" s="8"/>
+      <c r="CA21" s="8"/>
+      <c r="CB21" s="8"/>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="8"/>
+      <c r="CE21" s="8"/>
+      <c r="CF21" s="8"/>
+      <c r="CG21" s="8"/>
+      <c r="CH21" s="8"/>
+      <c r="CI21" s="8"/>
+      <c r="CJ21" s="8"/>
+      <c r="CK21" s="8"/>
+      <c r="CL21" s="8"/>
+      <c r="CM21" s="8"/>
+      <c r="CN21" s="8"/>
+      <c r="CO21" s="8"/>
+      <c r="CP21" s="8"/>
+      <c r="CQ21" s="8"/>
+      <c r="CR21" s="8"/>
+      <c r="CS21" s="8"/>
+      <c r="CT21" s="8"/>
+      <c r="CU21" s="8"/>
+      <c r="CV21" s="8"/>
+      <c r="CW21" s="8"/>
+      <c r="CX21" s="8"/>
+      <c r="CY21" s="8"/>
+      <c r="CZ21" s="8"/>
+      <c r="DA21" s="8"/>
+      <c r="DB21" s="8"/>
+      <c r="DC21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
-      <c r="BL22" s="6"/>
-      <c r="BM22" s="6"/>
-      <c r="BN22" s="6"/>
-      <c r="BO22" s="6"/>
-      <c r="BP22" s="6"/>
-      <c r="BQ22" s="6"/>
-      <c r="BR22" s="6"/>
-      <c r="BS22" s="6"/>
-      <c r="BT22" s="6"/>
-      <c r="BU22" s="6"/>
-      <c r="BV22" s="6"/>
-      <c r="BW22" s="6"/>
-      <c r="BX22" s="6"/>
-      <c r="BY22" s="6"/>
-      <c r="BZ22" s="6"/>
-      <c r="CA22" s="6"/>
-      <c r="CB22" s="6"/>
-      <c r="CC22" s="6"/>
-      <c r="CD22" s="6"/>
-      <c r="CE22" s="6"/>
-      <c r="CF22" s="6"/>
-      <c r="CG22" s="6"/>
-      <c r="CH22" s="6"/>
-      <c r="CI22" s="6"/>
-      <c r="CJ22" s="6"/>
-      <c r="CK22" s="6"/>
-      <c r="CL22" s="6"/>
-      <c r="CM22" s="6"/>
-      <c r="CN22" s="6"/>
-      <c r="CO22" s="6"/>
-      <c r="CP22" s="6"/>
-      <c r="CQ22" s="6"/>
-      <c r="CR22" s="6"/>
-      <c r="CS22" s="6"/>
-      <c r="CT22" s="6"/>
-      <c r="CU22" s="6"/>
-      <c r="CV22" s="6"/>
-      <c r="CW22" s="6"/>
-      <c r="CX22" s="6"/>
-      <c r="CY22" s="6"/>
-      <c r="CZ22" s="6"/>
-      <c r="DA22" s="6"/>
-      <c r="DB22" s="6"/>
-      <c r="DC22" s="6"/>
+      <c r="A22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
+      <c r="BX22" s="7"/>
+      <c r="BY22" s="7"/>
+      <c r="BZ22" s="7"/>
+      <c r="CA22" s="7"/>
+      <c r="CB22" s="7"/>
+      <c r="CC22" s="7"/>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+      <c r="CG22" s="7"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="7"/>
+      <c r="CJ22" s="7"/>
+      <c r="CK22" s="7"/>
+      <c r="CL22" s="7"/>
+      <c r="CM22" s="7"/>
+      <c r="CN22" s="7"/>
+      <c r="CO22" s="7"/>
+      <c r="CP22" s="7"/>
+      <c r="CQ22" s="7"/>
+      <c r="CR22" s="7"/>
+      <c r="CS22" s="7"/>
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="7"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="7"/>
+      <c r="DA22" s="7"/>
+      <c r="DB22" s="7"/>
+      <c r="DC22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="7"/>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
-      <c r="BS23" s="7"/>
-      <c r="BT23" s="7"/>
-      <c r="BU23" s="7"/>
-      <c r="BV23" s="7"/>
-      <c r="BW23" s="7"/>
-      <c r="BX23" s="7"/>
-      <c r="BY23" s="7"/>
-      <c r="BZ23" s="7"/>
-      <c r="CA23" s="7"/>
-      <c r="CB23" s="7"/>
-      <c r="CC23" s="7"/>
-      <c r="CD23" s="7"/>
-      <c r="CE23" s="7"/>
-      <c r="CF23" s="7"/>
-      <c r="CG23" s="7"/>
-      <c r="CH23" s="7"/>
-      <c r="CI23" s="7"/>
-      <c r="CJ23" s="7"/>
-      <c r="CK23" s="7"/>
-      <c r="CL23" s="7"/>
-      <c r="CM23" s="7"/>
-      <c r="CN23" s="7"/>
-      <c r="CO23" s="7"/>
-      <c r="CP23" s="7"/>
-      <c r="CQ23" s="7"/>
-      <c r="CR23" s="7"/>
-      <c r="CS23" s="7"/>
-      <c r="CT23" s="7"/>
-      <c r="CU23" s="7"/>
-      <c r="CV23" s="7"/>
-      <c r="CW23" s="7"/>
-      <c r="CX23" s="7"/>
-      <c r="CY23" s="7"/>
-      <c r="CZ23" s="7"/>
-      <c r="DA23" s="7"/>
-      <c r="DB23" s="7"/>
-      <c r="DC23" s="7"/>
+      <c r="A23" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="8"/>
+      <c r="BL23" s="8"/>
+      <c r="BM23" s="8"/>
+      <c r="BN23" s="8"/>
+      <c r="BO23" s="8"/>
+      <c r="BP23" s="8"/>
+      <c r="BQ23" s="8"/>
+      <c r="BR23" s="8"/>
+      <c r="BS23" s="8"/>
+      <c r="BT23" s="8"/>
+      <c r="BU23" s="8"/>
+      <c r="BV23" s="8"/>
+      <c r="BW23" s="8"/>
+      <c r="BX23" s="8"/>
+      <c r="BY23" s="8"/>
+      <c r="BZ23" s="8"/>
+      <c r="CA23" s="8"/>
+      <c r="CB23" s="8"/>
+      <c r="CC23" s="8"/>
+      <c r="CD23" s="8"/>
+      <c r="CE23" s="8"/>
+      <c r="CF23" s="8"/>
+      <c r="CG23" s="8"/>
+      <c r="CH23" s="8"/>
+      <c r="CI23" s="8"/>
+      <c r="CJ23" s="8"/>
+      <c r="CK23" s="8"/>
+      <c r="CL23" s="8"/>
+      <c r="CM23" s="8"/>
+      <c r="CN23" s="8"/>
+      <c r="CO23" s="8"/>
+      <c r="CP23" s="8"/>
+      <c r="CQ23" s="8"/>
+      <c r="CR23" s="8"/>
+      <c r="CS23" s="8"/>
+      <c r="CT23" s="8"/>
+      <c r="CU23" s="8"/>
+      <c r="CV23" s="8"/>
+      <c r="CW23" s="8"/>
+      <c r="CX23" s="8"/>
+      <c r="CY23" s="8"/>
+      <c r="CZ23" s="8"/>
+      <c r="DA23" s="8"/>
+      <c r="DB23" s="8"/>
+      <c r="DC23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
-      <c r="BG24" s="6"/>
-      <c r="BH24" s="6"/>
-      <c r="BI24" s="6"/>
-      <c r="BJ24" s="6"/>
-      <c r="BK24" s="6"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="6"/>
-      <c r="BN24" s="6"/>
-      <c r="BO24" s="6"/>
-      <c r="BP24" s="6"/>
-      <c r="BQ24" s="6"/>
-      <c r="BR24" s="6"/>
-      <c r="BS24" s="6"/>
-      <c r="BT24" s="6"/>
-      <c r="BU24" s="6"/>
-      <c r="BV24" s="6"/>
-      <c r="BW24" s="6"/>
-      <c r="BX24" s="6"/>
-      <c r="BY24" s="6"/>
-      <c r="BZ24" s="6"/>
-      <c r="CA24" s="6"/>
-      <c r="CB24" s="6"/>
-      <c r="CC24" s="6"/>
-      <c r="CD24" s="6"/>
-      <c r="CE24" s="6"/>
-      <c r="CF24" s="6"/>
-      <c r="CG24" s="6"/>
-      <c r="CH24" s="6"/>
-      <c r="CI24" s="6"/>
-      <c r="CJ24" s="6"/>
-      <c r="CK24" s="6"/>
-      <c r="CL24" s="6"/>
-      <c r="CM24" s="6"/>
-      <c r="CN24" s="6"/>
-      <c r="CO24" s="6"/>
-      <c r="CP24" s="6"/>
-      <c r="CQ24" s="6"/>
-      <c r="CR24" s="6"/>
-      <c r="CS24" s="6"/>
-      <c r="CT24" s="6"/>
-      <c r="CU24" s="6"/>
-      <c r="CV24" s="6"/>
-      <c r="CW24" s="6"/>
-      <c r="CX24" s="6"/>
-      <c r="CY24" s="6"/>
-      <c r="CZ24" s="6"/>
-      <c r="DA24" s="6"/>
-      <c r="DB24" s="6"/>
-      <c r="DC24" s="6"/>
+      <c r="A24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7"/>
+      <c r="BO24" s="7"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+      <c r="BU24" s="7"/>
+      <c r="BV24" s="7"/>
+      <c r="BW24" s="7"/>
+      <c r="BX24" s="7"/>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="7"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
+      <c r="CJ24" s="7"/>
+      <c r="CK24" s="7"/>
+      <c r="CL24" s="7"/>
+      <c r="CM24" s="7"/>
+      <c r="CN24" s="7"/>
+      <c r="CO24" s="7"/>
+      <c r="CP24" s="7"/>
+      <c r="CQ24" s="7"/>
+      <c r="CR24" s="7"/>
+      <c r="CS24" s="7"/>
+      <c r="CT24" s="7"/>
+      <c r="CU24" s="7"/>
+      <c r="CV24" s="7"/>
+      <c r="CW24" s="7"/>
+      <c r="CX24" s="7"/>
+      <c r="CY24" s="7"/>
+      <c r="CZ24" s="7"/>
+      <c r="DA24" s="7"/>
+      <c r="DB24" s="7"/>
+      <c r="DC24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="7"/>
-      <c r="AY25" s="7"/>
-      <c r="AZ25" s="7"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
-      <c r="BC25" s="7"/>
-      <c r="BD25" s="7"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
-      <c r="BG25" s="7"/>
-      <c r="BH25" s="7"/>
-      <c r="BI25" s="7"/>
-      <c r="BJ25" s="7"/>
-      <c r="BK25" s="7"/>
-      <c r="BL25" s="7"/>
-      <c r="BM25" s="7"/>
-      <c r="BN25" s="7"/>
-      <c r="BO25" s="7"/>
-      <c r="BP25" s="7"/>
-      <c r="BQ25" s="7"/>
-      <c r="BR25" s="7"/>
-      <c r="BS25" s="7"/>
-      <c r="BT25" s="7"/>
-      <c r="BU25" s="7"/>
-      <c r="BV25" s="7"/>
-      <c r="BW25" s="7"/>
-      <c r="BX25" s="7"/>
-      <c r="BY25" s="7"/>
-      <c r="BZ25" s="7"/>
-      <c r="CA25" s="7"/>
-      <c r="CB25" s="7"/>
-      <c r="CC25" s="7"/>
-      <c r="CD25" s="7"/>
-      <c r="CE25" s="7"/>
-      <c r="CF25" s="7"/>
-      <c r="CG25" s="7"/>
-      <c r="CH25" s="7"/>
-      <c r="CI25" s="7"/>
-      <c r="CJ25" s="7"/>
-      <c r="CK25" s="7"/>
-      <c r="CL25" s="7"/>
-      <c r="CM25" s="7"/>
-      <c r="CN25" s="7"/>
-      <c r="CO25" s="7"/>
-      <c r="CP25" s="7"/>
-      <c r="CQ25" s="7"/>
-      <c r="CR25" s="7"/>
-      <c r="CS25" s="7"/>
-      <c r="CT25" s="7"/>
-      <c r="CU25" s="7"/>
-      <c r="CV25" s="7"/>
-      <c r="CW25" s="7"/>
-      <c r="CX25" s="7"/>
-      <c r="CY25" s="7"/>
-      <c r="CZ25" s="7"/>
-      <c r="DA25" s="7"/>
-      <c r="DB25" s="7"/>
-      <c r="DC25" s="7"/>
+      <c r="A25" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
+      <c r="BW25" s="8"/>
+      <c r="BX25" s="8"/>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
+      <c r="DC25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="6"/>
-      <c r="BF26" s="6"/>
-      <c r="BG26" s="6"/>
-      <c r="BH26" s="6"/>
-      <c r="BI26" s="6"/>
-      <c r="BJ26" s="6"/>
-      <c r="BK26" s="6"/>
-      <c r="BL26" s="6"/>
-      <c r="BM26" s="6"/>
-      <c r="BN26" s="6"/>
-      <c r="BO26" s="6"/>
-      <c r="BP26" s="6"/>
-      <c r="BQ26" s="6"/>
-      <c r="BR26" s="6"/>
-      <c r="BS26" s="6"/>
-      <c r="BT26" s="6"/>
-      <c r="BU26" s="6"/>
-      <c r="BV26" s="6"/>
-      <c r="BW26" s="6"/>
-      <c r="BX26" s="6"/>
-      <c r="BY26" s="6"/>
-      <c r="BZ26" s="6"/>
-      <c r="CA26" s="6"/>
-      <c r="CB26" s="6"/>
-      <c r="CC26" s="6"/>
-      <c r="CD26" s="6"/>
-      <c r="CE26" s="6"/>
-      <c r="CF26" s="6"/>
-      <c r="CG26" s="6"/>
-      <c r="CH26" s="6"/>
-      <c r="CI26" s="6"/>
-      <c r="CJ26" s="6"/>
-      <c r="CK26" s="6"/>
-      <c r="CL26" s="6"/>
-      <c r="CM26" s="6"/>
-      <c r="CN26" s="6"/>
-      <c r="CO26" s="6"/>
-      <c r="CP26" s="6"/>
-      <c r="CQ26" s="6"/>
-      <c r="CR26" s="6"/>
-      <c r="CS26" s="6"/>
-      <c r="CT26" s="6"/>
-      <c r="CU26" s="6"/>
-      <c r="CV26" s="6"/>
-      <c r="CW26" s="6"/>
-      <c r="CX26" s="6"/>
-      <c r="CY26" s="6"/>
-      <c r="CZ26" s="6"/>
-      <c r="DA26" s="6"/>
-      <c r="DB26" s="6"/>
-      <c r="DC26" s="6"/>
+      <c r="A26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+      <c r="BU26" s="7"/>
+      <c r="BV26" s="7"/>
+      <c r="BW26" s="7"/>
+      <c r="BX26" s="7"/>
+      <c r="BY26" s="7"/>
+      <c r="BZ26" s="7"/>
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="7"/>
+      <c r="CC26" s="7"/>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+      <c r="CG26" s="7"/>
+      <c r="CH26" s="7"/>
+      <c r="CI26" s="7"/>
+      <c r="CJ26" s="7"/>
+      <c r="CK26" s="7"/>
+      <c r="CL26" s="7"/>
+      <c r="CM26" s="7"/>
+      <c r="CN26" s="7"/>
+      <c r="CO26" s="7"/>
+      <c r="CP26" s="7"/>
+      <c r="CQ26" s="7"/>
+      <c r="CR26" s="7"/>
+      <c r="CS26" s="7"/>
+      <c r="CT26" s="7"/>
+      <c r="CU26" s="7"/>
+      <c r="CV26" s="7"/>
+      <c r="CW26" s="7"/>
+      <c r="CX26" s="7"/>
+      <c r="CY26" s="7"/>
+      <c r="CZ26" s="7"/>
+      <c r="DA26" s="7"/>
+      <c r="DB26" s="7"/>
+      <c r="DC26" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>403</v>
+      <c r="A28" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>83</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>409</v>
+      <c r="A32" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>7</v>
@@ -7039,7 +7286,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>25</v>
@@ -7047,7 +7294,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>18</v>
@@ -7055,28 +7302,28 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>414</v>
+      <c r="A37" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>416</v>
+      <c r="A39" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>56</v>
@@ -7084,7 +7331,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2</v>
@@ -7092,7 +7339,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>7</v>
@@ -7100,7 +7347,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>17</v>
@@ -7108,7 +7355,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -7116,7 +7363,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -7124,20 +7371,20 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>419</v>
+      <c r="A47" s="11" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>34</v>
@@ -7145,7 +7392,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>19</v>
@@ -7153,7 +7400,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2</v>
@@ -7161,7 +7408,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -7216,36 +7463,36 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>424</v>
+      <c r="A1" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>429</v>
+      <c r="C2" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="J2" s="12" t="n">
+        <v>449</v>
+      </c>
+      <c r="J2" s="13" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>230</v>
@@ -7265,7 +7512,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>183</v>
@@ -7285,7 +7532,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>76</v>
@@ -7305,7 +7552,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -7325,7 +7572,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -7345,7 +7592,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -7365,7 +7612,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -7385,24 +7632,24 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>203</v>
@@ -7422,7 +7669,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>203</v>
@@ -7442,7 +7689,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>202</v>
@@ -7462,7 +7709,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>137</v>
@@ -7482,7 +7729,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>107</v>
@@ -7502,7 +7749,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>42</v>
@@ -7522,7 +7769,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>30</v>
@@ -7542,7 +7789,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>16</v>
@@ -7562,7 +7809,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>11</v>
@@ -7582,7 +7829,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>6</v>
@@ -7602,7 +7849,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -7621,30 +7868,30 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>443</v>
+      <c r="A25" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>306</v>
@@ -7664,7 +7911,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>306</v>
@@ -7684,7 +7931,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>73</v>
@@ -7734,101 +7981,101 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
-        <v>450</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>469</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
-        <v>452</v>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="18" t="n">
         <v>2010</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="19" t="n">
         <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="18" t="n">
         <v>2011</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="19" t="n">
         <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="18" t="n">
         <v>2012</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="19" t="n">
         <v>298</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="18" t="n">
         <v>2013</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="19" t="n">
         <v>296</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="18" t="n">
         <v>2014</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="19" t="n">
         <v>293</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="18" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="19" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="18" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="19" t="n">
         <v>309</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="18" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="19" t="n">
         <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>403</v>
+      <c r="A13" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>157</v>
@@ -7836,7 +8083,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>63</v>
@@ -7844,7 +8091,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>33</v>
@@ -7852,7 +8099,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>23</v>
@@ -7860,7 +8107,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>17</v>
@@ -7868,7 +8115,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>17</v>
@@ -7876,7 +8123,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -7884,7 +8131,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>7</v>
@@ -7892,7 +8139,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6</v>
@@ -7900,7 +8147,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>4</v>
@@ -7908,7 +8155,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>4</v>
@@ -7916,7 +8163,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -7940,7 +8187,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7954,96 +8201,96 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
-        <v>450</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>469</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
-        <v>465</v>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="18" t="n">
         <v>2010</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="19" t="n">
         <v>518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
+      <c r="A5" s="18" t="n">
         <v>2011</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="19" t="n">
         <v>515</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="18" t="n">
         <v>2012</v>
       </c>
-      <c r="B6" s="18" t="n">
+      <c r="B6" s="19" t="n">
         <v>532</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="18" t="n">
         <v>2013</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="19" t="n">
         <v>532</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="18" t="n">
         <v>2014</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="19" t="n">
         <v>535</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
+      <c r="A9" s="18" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="19" t="n">
         <v>546</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="18" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" s="18" t="n">
+      <c r="B10" s="19" t="n">
         <v>559</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
+      <c r="A11" s="18" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="19" t="n">
         <v>567</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>403</v>
+      <c r="A13" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,113 +8338,113 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>466</v>
+      <c r="A1" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>468</v>
+      <c r="A3" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>470</v>
+      <c r="A4" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>472</v>
+      <c r="A5" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>474</v>
+        <v>492</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>476</v>
+        <v>494</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>478</v>
+        <v>496</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>480</v>
+        <v>498</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>482</v>
+        <v>500</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>484</v>
+        <v>502</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>486</v>
+        <v>504</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>487</v>
+      <c r="A14" s="9" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -8237,258 +8484,258 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>494</v>
+      <c r="A2" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>499</v>
+      <c r="B4" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>504</v>
+      <c r="B5" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>509</v>
+      <c r="B6" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="I7" s="22" t="n">
+      <c r="B7" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="I7" s="23" t="n">
         <v>922388805</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>518</v>
+      <c r="H8" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>523</v>
+      <c r="B9" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="D10" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>525</v>
+      <c r="A10" s="26"/>
+      <c r="D10" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="D11" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>527</v>
+      <c r="A11" s="27"/>
+      <c r="D11" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25"/>
-      <c r="D12" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>529</v>
+      <c r="A12" s="26"/>
+      <c r="D12" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="D13" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>531</v>
+      <c r="A13" s="27"/>
+      <c r="D13" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="D14" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>533</v>
+      <c r="A14" s="26"/>
+      <c r="D14" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="D15" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="A15" s="27"/>
+      <c r="D15" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>535</v>
       </c>
+      <c r="F15" s="24" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8527,80 +8774,80 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>542</v>
+      <c r="G2" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="29" t="n">
+      <c r="A3" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="30" t="n">
         <v>28418020</v>
       </c>
-      <c r="D3" s="29" t="n">
+      <c r="D3" s="30" t="n">
         <v>-16550103</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="23" t="n">
         <v>922386000</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>546</v>
-      </c>
-      <c r="H3" s="22" t="n">
+      <c r="F3" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="H3" s="23" t="n">
         <v>922384769</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="C4" s="29" t="n">
+      <c r="A4" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="30" t="n">
         <v>28414587</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D4" s="30" t="n">
         <v>-16555873</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="23" t="n">
         <v>922388777</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="H4" s="22"/>
+      <c r="F4" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H4" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
